--- a/公交.xlsx
+++ b/公交.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24254\Desktop\我爱学习！\我爱人工智能\MindSpore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24254\Desktop\我爱学习！\我爱人工智能\公交换乘系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA82A24C-0DD2-4310-8F80-99F87E7CB0AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9D26E4-6765-4750-8FDD-49B25C777519}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,10 +739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28北京北站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>632路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,6 +824,10 @@
   </si>
   <si>
     <t>清河小营桥南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京北站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1192,7 @@
         <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1218,7 +1218,7 @@
         <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1244,7 +1244,7 @@
         <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>159</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
         <v>160</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1348,7 +1348,7 @@
         <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1374,7 +1374,7 @@
         <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1400,7 +1400,7 @@
         <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>164</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1452,7 +1452,7 @@
         <v>165</v>
       </c>
       <c r="H11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1504,7 +1504,7 @@
         <v>167</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1530,7 +1530,7 @@
         <v>168</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1556,7 +1556,7 @@
         <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>170</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1608,7 +1608,7 @@
         <v>171</v>
       </c>
       <c r="H17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1686,7 +1686,7 @@
         <v>174</v>
       </c>
       <c r="H20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,7 +1712,7 @@
         <v>175</v>
       </c>
       <c r="H21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
         <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1784,7 +1784,7 @@
         <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1807,7 +1807,7 @@
         <v>119</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1857,7 +1857,7 @@
         <v>82</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
